--- a/src/sites and variables.xlsx
+++ b/src/sites and variables.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
